--- a/presentation/first_results.xlsx
+++ b/presentation/first_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
   <si>
     <t>KNN</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>0.9196</t>
-  </si>
-  <si>
-    <t>110|63|85|160|29|23|124|162|220|153|16|249|79|196|7|136|245|70|18|131|99|211|64|56|133|146|26|51|104|252|132|31|77|174|53|200|116|246|151|209|240|185|115|170|223|45|242|84|100|248|233|122|221|201|204|30|130|36|98|189|66|46|207|217|181|234|216|186|236|19|149|176|37|34|8|225|59|193|206|35|89|49|62|80|12|164|231|101|88|159|169|15|87|188|103|194|150|158|128|76|219|182|22|250|60|24|157|141|68|152|93|230|21|94|41|14|129|213|172|40|65|229|92|226|253|113|38|127|9|106|102|218|144|73|143|135|109|90|187|108|184|154|205|237|138|145|96|148|43|86|198|255|228|105|180|121|224|212|67|83|107|166|28|6|238|247|125|119|254|142|147|32|0|183|114|244|82|179|20|58|165|44|235|111|167|171|55|173|222|126|203|239|27|54|214|168|120|3|156|178|227|123|199|95|74|192|139|39|175|97|210|1|75|195|4|251|163|11|81|2|202|137|134|208|190|17|91|197|117|50|215|42|47|243|13|155|78|69|140|5|61|25|232|71|33|241|52|191|10|112|177|161|118|72|57|48|&lt;/Bases&gt;</t>
   </si>
   <si>
     <t>0.6710</t>
@@ -590,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1189,7 @@
         <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -1463,22 +1460,22 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>34</v>
@@ -1500,19 +1497,19 @@
         <v>51</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
